--- a/doc/TestResultFile.xlsx
+++ b/doc/TestResultFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\workspace_research\Programing_Chal\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jingjun Long\Documents\git\Programming_Challenge_Query\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Test result (Milliseconds)</t>
-  </si>
-  <si>
-    <t>Round</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>normal prop - 1</t>
   </si>
@@ -45,13 +39,20 @@
     <t>MongoDB</t>
   </si>
   <si>
-    <t>Spend more time as there are more data.</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>Long</t>
+    <t>实现方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果（毫秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随着数据的增长，花的时间随着增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -64,15 +65,24 @@
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
-      <t>万</t>
+      <t>万条数据</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramdom File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +109,13 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -155,25 +172,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -456,354 +490,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="4.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="4.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <v>4</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>5</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="3">
         <v>6</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <v>7</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>274</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>265</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>248</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>289</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>295</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>265</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>278</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>273</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>275</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>270</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>273</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>265</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>286</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>280</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>265</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>262</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>292</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>270</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>274</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="3">
         <v>280</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>247</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>133</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>136</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>135</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>132</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>133</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="3">
         <v>139</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>156</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>145</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>148</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>136</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>135</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>141</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <v>134</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>135</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>134</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>136</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>136</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>139</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <v>129</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="3">
         <v>142</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>143</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>122</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>127</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>115</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="6">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C1:J1"/>
+    <mergeCell ref="D9:J9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -813,132 +849,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="14" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="B3" s="2">
+        <v>121</v>
+      </c>
+      <c r="C3" s="2">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2">
+        <v>93</v>
+      </c>
+      <c r="E3" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>125</v>
+      </c>
+      <c r="C4" s="2">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2">
+        <v>105</v>
+      </c>
+      <c r="E4" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>119</v>
+      </c>
+      <c r="C5" s="2">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2">
+        <v>96</v>
+      </c>
+      <c r="E5" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
-        <v>121</v>
-      </c>
-      <c r="C3" s="5">
-        <v>31</v>
-      </c>
-      <c r="D3" s="5">
-        <v>93</v>
-      </c>
-      <c r="E3" s="5">
-        <v>53</v>
-      </c>
-      <c r="G3" s="5">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
-        <v>125</v>
-      </c>
-      <c r="C4" s="5">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5">
-        <v>105</v>
-      </c>
-      <c r="E4" s="5">
-        <v>52</v>
-      </c>
-      <c r="G4" s="5">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
-        <v>119</v>
-      </c>
-      <c r="C5" s="5">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5">
-        <v>96</v>
-      </c>
-      <c r="E5" s="5">
-        <v>49</v>
-      </c>
-      <c r="G5" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
         <v>1</v>
       </c>
     </row>
